--- a/Personal_Master_Template.xlsx
+++ b/Personal_Master_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Finance-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAFB9B-02D8-401F-8572-31E55A209D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97BF39-9888-4759-A586-DE1322728179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -496,18 +496,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -520,42 +520,12 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -617,6 +587,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3997,7 +3987,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Budi Saputra Wijaya" refreshedDate="45909.954826967594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{A383224B-98CE-4DCF-8747-034673416204}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Budi Saputra Wijaya" refreshedDate="45909.960315046294" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{A383224B-98CE-4DCF-8747-034673416204}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N1048576" sheet="Transactions"/>
   </cacheSource>
@@ -4772,7 +4762,7 @@
     <dataField name="Sum of Value/All" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="8">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4781,10 +4771,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4793,7 +4783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5259,21 +5249,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929614C8-E744-4E77-9C7F-05BE223781FF}" name="Table1" displayName="Table1" ref="A1:E300" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{929614C8-E744-4E77-9C7F-05BE223781FF}" name="Table1" displayName="Table1" ref="A1:E300" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9C185B56-2D6E-4FBD-A50E-C1C07E7080DC}" name="Category ID" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{9C185B56-2D6E-4FBD-A50E-C1C07E7080DC}" name="Category ID" dataDxfId="12">
       <calculatedColumnFormula>IFERROR(IF(Transactions!$M$2:$M$293&lt;&gt;"",_xlfn.XLOOKUP(B2,Transactions!$M$2:$M$293,Transactions!$L$2:$L$293),""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0633AE88-83D6-4585-930A-A289D6169745}" name="Categories Name" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{0633AE88-83D6-4585-930A-A289D6169745}" name="Categories Name" dataDxfId="11">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Transactions!$M$2:$M$293,MATCH(0,COUNTIF($B$1:$B1,Transactions!$M$2:$M$293),0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AE08C1A9-0B71-45D6-9EB8-BA92EFB5E066}" name="Type" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{AE08C1A9-0B71-45D6-9EB8-BA92EFB5E066}" name="Type" dataDxfId="10">
       <calculatedColumnFormula>IFERROR(IF(Transactions!$M$2:$M$293&lt;&gt;"",_xlfn.XLOOKUP(B2,Transactions!$M$2:$M$293,Transactions!$C$2:$C$293),""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9D850695-2D34-4196-939A-0B0525CFA05B}" name="Total Transaction" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{9D850695-2D34-4196-939A-0B0525CFA05B}" name="Total Transaction" dataDxfId="9">
       <calculatedColumnFormula>IF($B2="","",IF(COUNTIFS(Transactions!$M$2:$M$293,$B2)=0,"",COUNTIFS(Transactions!$M$2:$M$293,$B2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4C678696-66F7-4EEF-AA74-6A9CC2E879DF}" name="Total Amount" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{4C678696-66F7-4EEF-AA74-6A9CC2E879DF}" name="Total Amount" dataDxfId="8">
       <calculatedColumnFormula>IF($C2="","",SUMIFS(Transactions!I:I,Transactions!L:L,'Category &amp; Summary'!A:A))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5282,11 +5272,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0A7125F-2711-476C-B856-2F71F3436375}" name="Table4" displayName="Table4" ref="G1:H4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0A7125F-2711-476C-B856-2F71F3436375}" name="Table4" displayName="Table4" ref="G1:H4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="G1:H4" xr:uid="{B0A7125F-2711-476C-B856-2F71F3436375}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{63D9B415-8AD6-4ED9-BE6C-C56CFD715CE4}" name="Metric" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C258DB55-9010-465E-A171-6527915A0249}" name="Value" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{63D9B415-8AD6-4ED9-BE6C-C56CFD715CE4}" name="Metric" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C258DB55-9010-465E-A171-6527915A0249}" name="Value" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="PivotStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5579,7 +5569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -6844,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27161DDB-8094-4BD1-A9A0-F78C794CCCF4}">
   <dimension ref="A1:AC300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7060,10 +7050,10 @@
         <f>IF($C6="","",SUMIFS(Transactions!I:I,Transactions!L:L,'Category &amp; Summary'!A:A))</f>
         <v>-1200</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>68</v>
       </c>
       <c r="I6"/>
@@ -7092,7 +7082,7 @@
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>-15600</v>
       </c>
       <c r="I7"/>
